--- a/teaching/traditional_assets/database/data/bermuda/bermuda_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_insurance_life.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -600,25 +600,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1238469789059707</v>
+        <v>0.1488272921108742</v>
       </c>
       <c r="J2">
-        <v>0.1234652064679128</v>
+        <v>0.1259581301861937</v>
       </c>
       <c r="K2">
-        <v>1617</v>
+        <v>899</v>
       </c>
       <c r="L2">
-        <v>0.115623882731498</v>
+        <v>0.09584221748400854</v>
       </c>
       <c r="M2">
-        <v>648</v>
+        <v>709</v>
       </c>
       <c r="N2">
-        <v>0.07837919564560024</v>
+        <v>0.08583742947771134</v>
       </c>
       <c r="O2">
-        <v>0.4007421150278293</v>
+        <v>0.7886540600667408</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>648</v>
+        <v>709</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>3836</v>
+        <v>7548</v>
       </c>
       <c r="V2">
-        <v>0.4639854853341397</v>
+        <v>0.9138235792634205</v>
       </c>
       <c r="W2">
-        <v>0.1782997022825008</v>
+        <v>0.06637135474344777</v>
       </c>
       <c r="X2">
-        <v>0.08532321691529338</v>
+        <v>0.07264538768372188</v>
       </c>
       <c r="Y2">
-        <v>0.09297648536720746</v>
+        <v>-0.006274032940274107</v>
       </c>
       <c r="Z2">
-        <v>2.207228535353535</v>
+        <v>0.8763897972531066</v>
       </c>
       <c r="AA2">
-        <v>0.272515926839293</v>
+        <v>0.1103884201762587</v>
       </c>
       <c r="AB2">
-        <v>0.07995338173773675</v>
+        <v>0.06650216321179234</v>
       </c>
       <c r="AC2">
-        <v>0.1925625451015563</v>
+        <v>0.04388625696446637</v>
       </c>
       <c r="AD2">
-        <v>994</v>
+        <v>1528</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>994</v>
+        <v>1528</v>
       </c>
       <c r="AG2">
-        <v>-2842</v>
+        <v>-6020</v>
       </c>
       <c r="AH2">
-        <v>0.1073260271014415</v>
+        <v>0.1561127117431905</v>
       </c>
       <c r="AI2">
-        <v>0.06836783822821377</v>
+        <v>0.08195226602306248</v>
       </c>
       <c r="AJ2">
-        <v>-0.5238226891530734</v>
+        <v>-2.687739976783642</v>
       </c>
       <c r="AK2">
-        <v>-0.2655330281229562</v>
+        <v>-0.5424889609804452</v>
       </c>
       <c r="AL2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AM2">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AO2">
-        <v>28.86666666666667</v>
+        <v>13.55339805825243</v>
       </c>
       <c r="AQ2">
-        <v>28.86666666666667</v>
+        <v>13.55339805825243</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1238469789059707</v>
+        <v>0.1488272921108742</v>
       </c>
       <c r="J3">
-        <v>0.1234652064679128</v>
+        <v>0.1259581301861937</v>
       </c>
       <c r="K3">
-        <v>1617</v>
+        <v>899</v>
       </c>
       <c r="L3">
-        <v>0.115623882731498</v>
+        <v>0.09584221748400854</v>
       </c>
       <c r="M3">
-        <v>648</v>
+        <v>709</v>
       </c>
       <c r="N3">
-        <v>0.07837919564560024</v>
+        <v>0.08583742947771134</v>
       </c>
       <c r="O3">
-        <v>0.4007421150278293</v>
+        <v>0.7886540600667408</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>648</v>
+        <v>709</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>3836</v>
+        <v>7548</v>
       </c>
       <c r="V3">
-        <v>0.4639854853341397</v>
+        <v>0.9138235792634205</v>
       </c>
       <c r="W3">
-        <v>0.1782997022825008</v>
+        <v>0.06637135474344777</v>
       </c>
       <c r="X3">
-        <v>0.08532321691529338</v>
+        <v>0.07264538768372188</v>
       </c>
       <c r="Y3">
-        <v>0.09297648536720746</v>
+        <v>-0.006274032940274107</v>
       </c>
       <c r="Z3">
-        <v>2.207228535353535</v>
+        <v>0.8763897972531066</v>
       </c>
       <c r="AA3">
-        <v>0.272515926839293</v>
+        <v>0.1103884201762587</v>
       </c>
       <c r="AB3">
-        <v>0.07995338173773675</v>
+        <v>0.06650216321179234</v>
       </c>
       <c r="AC3">
-        <v>0.1925625451015563</v>
+        <v>0.04388625696446637</v>
       </c>
       <c r="AD3">
-        <v>994</v>
+        <v>1528</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>994</v>
+        <v>1528</v>
       </c>
       <c r="AG3">
-        <v>-2842</v>
+        <v>-6020</v>
       </c>
       <c r="AH3">
-        <v>0.1073260271014415</v>
+        <v>0.1561127117431905</v>
       </c>
       <c r="AI3">
-        <v>0.06836783822821377</v>
+        <v>0.08195226602306248</v>
       </c>
       <c r="AJ3">
-        <v>-0.5238226891530734</v>
+        <v>-2.687739976783642</v>
       </c>
       <c r="AK3">
-        <v>-0.2655330281229562</v>
+        <v>-0.5424889609804452</v>
       </c>
       <c r="AL3">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AM3">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="AO3">
-        <v>28.86666666666667</v>
+        <v>13.55339805825243</v>
       </c>
       <c r="AQ3">
-        <v>28.86666666666667</v>
+        <v>13.55339805825243</v>
       </c>
     </row>
   </sheetData>
